--- a/model_output_with_predicted_cluster.csv.xlsx
+++ b/model_output_with_predicted_cluster.csv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2430b046bef6b2a3/Documents/Legal IP/LitigationIP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C8B2904-E3AE-425C-B371-CACB62F134CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{8C8B2904-E3AE-425C-B371-CACB62F134CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A8EF84E-31A2-414C-9AC2-15A1F0CCF654}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{56AAB453-A84E-4428-AC24-3A1D2FF12384}"/>
   </bookViews>
@@ -1900,10 +1900,13 @@
   <dimension ref="A1:AE156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="29.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
